--- a/public/import/daily_template (9).xlsx
+++ b/public/import/daily_template (9).xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyas-V14\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TEGUH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="31">
   <si>
     <t>date</t>
   </si>
@@ -30,108 +30,105 @@
     <t>time</t>
   </si>
   <si>
-    <t>2022-06-13</t>
-  </si>
-  <si>
     <t>08:00</t>
   </si>
   <si>
-    <t>MB With HCM</t>
-  </si>
-  <si>
-    <t>Creat to do list</t>
-  </si>
-  <si>
-    <t>Pairing XL</t>
-  </si>
-  <si>
-    <t>Report to do list</t>
-  </si>
-  <si>
-    <t>Tarik data hasil grading</t>
-  </si>
-  <si>
-    <t>08:30</t>
+    <t>Dump Penjualan Forstok</t>
+  </si>
+  <si>
+    <t>Monitoring stok per MP</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memastikan Orderan hari sebelumnya terpickup oleh ekspedisi </t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>Proses orderan</t>
   </si>
   <si>
     <t>10:30</t>
   </si>
   <si>
-    <t>11:00</t>
+    <t>Bikin So by CSA</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collect list data database Penjualan di MP dan kirim ke grup gudang  (per hari) </t>
   </si>
   <si>
     <t>13:00</t>
   </si>
   <si>
-    <t>2022-06-14</t>
-  </si>
-  <si>
-    <t>Report DnD</t>
-  </si>
-  <si>
-    <t>Training DnD</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>Share undangan training</t>
+    <t>Melakukan QC setiap pesanan terkait (harga dan warna)</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>Breafing With Team Online</t>
   </si>
   <si>
     <t>15:00</t>
   </si>
   <si>
-    <t>Ceklis hasil grading</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>Follow up yg belum grading</t>
-  </si>
-  <si>
-    <t>2022-06-15</t>
-  </si>
-  <si>
-    <t>Sosialisasi skema insentif</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>Rekap hasil training retail week 23</t>
-  </si>
-  <si>
-    <t>2022-06-16</t>
-  </si>
-  <si>
-    <t>Rekap hasil grading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Training budaya perusahaan </t>
-  </si>
-  <si>
-    <t>2022-06-17</t>
-  </si>
-  <si>
-    <t>Prepare materi budaya perusahaan</t>
-  </si>
-  <si>
-    <t>2022-06-18</t>
-  </si>
-  <si>
-    <t>Remedial budaya perusahaan</t>
+    <t xml:space="preserve">Rekap total penjualan online </t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>Melaporkan pencapaian target harian online</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-08-23</t>
+  </si>
+  <si>
+    <t>CUTI</t>
+  </si>
+  <si>
+    <t>2022-08-24</t>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
+    <t>2022-08-26</t>
+  </si>
+  <si>
+    <t>2022-08-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,9 +151,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -217,7 +215,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,7 +250,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,16 +459,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -486,223 +484,564 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C25" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C50" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
